--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1560309.979426492</v>
+        <v>1558422.39791009</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>203.7166128950668</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>160.6335276424237</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.98569063694827</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>76.71587097450818</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>403.2634945072138</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>117.339905340422</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>205.0849044383768</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>300.2994412657488</v>
+        <v>71.48178217897146</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11652230853556</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>275.3073339037829</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.40955656862237</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>164.3675597136118</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>115.5269768002171</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>72.76043038242783</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.149688088297</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.77945773664924</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>206.8064269214862</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>217.7518546984674</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>110.0642909656597</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>215.0546805228906</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8328922122433939</v>
+        <v>70.69818097003437</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463113</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>631.9064409481875</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C2" t="n">
-        <v>631.9064409481875</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>273.640742341437</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>273.640742341437</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2534.893002490522</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2316.258335462585</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2062.496550100676</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1731.433662757106</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1731.433662757106</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>1731.433662757106</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.506281012309</v>
+        <v>1341.294330781294</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4428,7 +4428,7 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>650.638205444305</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>650.638205444305</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>650.638205444305</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>650.638205444305</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2465.942913862886</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>2096.980396922474</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1738.714698315724</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1352.926445717479</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>941.9405409278718</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2347.417756953369</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2093.65597159146</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1762.593084247889</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>520.9725150767609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1446555862789</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4838,16 @@
         <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,37 +4893,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5124,16 +5124,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>678.2225136306376</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C13" t="n">
-        <v>509.2863307027308</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>359.169691290395</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>359.169691290395</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>359.169691290395</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>820.5263570570733</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150545</v>
+        <v>542.438140992646</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170372</v>
+        <v>542.438140992646</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8250614170372</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028583</v>
@@ -5285,10 +5285,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028586</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028586</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028586</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.926819478486</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1241.006809394038</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5598,16 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201014</v>
+        <v>208.7516828383388</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201014</v>
+        <v>208.7516828383388</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201014</v>
+        <v>208.7516828383388</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201014</v>
+        <v>208.7516828383388</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383388</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383388</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383388</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5704,19 +5704,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1201.635471122734</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550793</v>
+        <v>946.9509829168468</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181187</v>
+        <v>657.5338128798862</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201014</v>
+        <v>429.5442619818689</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201014</v>
+        <v>208.7516828383388</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,22 +5744,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,16 +5768,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W22" t="n">
-        <v>785.7936752259999</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="X22" t="n">
-        <v>557.8041243279825</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="Y22" t="n">
-        <v>337.0115451844524</v>
+        <v>157.6003821033659</v>
       </c>
     </row>
     <row r="23">
@@ -5966,13 +5966,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
         <v>904.3190116155888</v>
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6081,10 +6081,10 @@
         <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>734.8632439327644</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>565.9270610048575</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1278.964902175612</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1024.280413969725</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>734.8632439327644</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>734.8632439327644</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>734.8632439327644</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>355.2830904386606</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>355.2830904386606</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207689</v>
+        <v>355.2830904386606</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383757</v>
+        <v>355.2830904386606</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.3931429407502</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.3931429407502</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557903</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1281.689320534781</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1281.689320534781</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>1281.689320534781</v>
+        <v>985.7136853104478</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.689320534781</v>
+        <v>757.7241344124304</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>536.9315552689003</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,16 +6464,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215257</v>
+        <v>567.5935089039632</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749895</v>
+        <v>454.4181912574271</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440245</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430021</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1879.970519634378</v>
+        <v>1864.713759045938</v>
       </c>
       <c r="T31" t="n">
-        <v>1879.970519634378</v>
+        <v>1696.689209116815</v>
       </c>
       <c r="U31" t="n">
-        <v>1646.602746129307</v>
+        <v>1463.321435611744</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.67912320479</v>
+        <v>1264.397812687228</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.0228184492</v>
+        <v>1030.741507931638</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832554</v>
+        <v>858.5128223149915</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703946</v>
+        <v>693.4811084528321</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6923,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525405</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254962</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,37 +7345,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,13 +7400,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,13 +7646,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,19 +8772,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7154578734017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>11.21566443280807</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>52.55479583517043</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>61.34209567542533</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>29.89407122271412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>213.4769220161495</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.6822920936403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.65450490991992</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690293</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>68.48549770010996</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>38.8495374018762</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,19 +24652,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>71.18267187568665</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>141.8846611428028</v>
+        <v>72.01937238501182</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>963160.9607268167</v>
+        <v>963160.9607268168</v>
       </c>
     </row>
     <row r="12">
@@ -26317,22 +26317,22 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="I2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983652</v>
@@ -26341,19 +26341,19 @@
         <v>467845.4579470613</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="N2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719628</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,19 +26424,19 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007537</v>
+        <v>7916.731656007545</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007492</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007441</v>
+        <v>7916.731656007491</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007483</v>
@@ -26445,16 +26445,16 @@
         <v>26081.35417020402</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732796</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348644.9883219119</v>
+        <v>-348644.988321912</v>
       </c>
       <c r="C6" t="n">
         <v>241322.8908926327</v>
       </c>
       <c r="D6" t="n">
-        <v>241322.8908926326</v>
+        <v>241322.8908926327</v>
       </c>
       <c r="E6" t="n">
-        <v>-175380.6753832552</v>
+        <v>-175478.1345092272</v>
       </c>
       <c r="F6" t="n">
-        <v>349779.3610936411</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="G6" t="n">
-        <v>349779.3610936411</v>
+        <v>349681.901967669</v>
       </c>
       <c r="H6" t="n">
-        <v>349779.3610936411</v>
+        <v>349681.901967669</v>
       </c>
       <c r="I6" t="n">
-        <v>349779.361093641</v>
+        <v>349681.901967669</v>
       </c>
       <c r="J6" t="n">
-        <v>173356.1419010482</v>
+        <v>173258.6827750759</v>
       </c>
       <c r="K6" t="n">
-        <v>300973.2899437889</v>
+        <v>300954.7962058545</v>
       </c>
       <c r="L6" t="n">
         <v>333705.4861537426</v>
       </c>
       <c r="M6" t="n">
-        <v>209247.3777207723</v>
+        <v>209247.3777207722</v>
       </c>
       <c r="N6" t="n">
         <v>344048.3929546095</v>
       </c>
       <c r="O6" t="n">
-        <v>344048.3929546094</v>
+        <v>344048.3929546095</v>
       </c>
       <c r="P6" t="n">
         <v>299885.7876517638</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>203.1594328466446</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.78218516654778</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>125.6297823812641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>148.3192344835761</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.52067551358118</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>99.10841501723583</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>208.8197898846882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>81.43809389821425</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>64.97345050525871</v>
+        <v>293.7911095920361</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538052008</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-5.470219025909084e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>54.37527471535621</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325993</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35726,13 +35726,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35966,7 +35966,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35975,10 +35975,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36136,7 +36136,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,10 +36212,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>215.6591577951388</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,7 +36680,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,7 +36917,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,7 +37154,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,7 +37391,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,7 +37628,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,7 +38102,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
